--- a/data/raw/Lernverhalten_1_Seminar_SS_22_jul_22.xlsx
+++ b/data/raw/Lernverhalten_1_Seminar_SS_22_jul_22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\anki\r_anki\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fridt\OneDrive\Desktop\Arbeit\anki\r_anki\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5F7E27-BC25-4871-95C8-EDC0CE348E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AD9E51-0D9E-48EB-8E31-1EFA88A2610E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15390" xr2:uid="{987D22FD-4DD2-42ED-A285-B10B6EF70560}"/>
+    <workbookView xWindow="6480" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{987D22FD-4DD2-42ED-A285-B10B6EF70560}"/>
   </bookViews>
   <sheets>
     <sheet name="sys_41-Lernverhalten_Kurssemest" sheetId="2" r:id="rId1"/>
@@ -1235,7 +1235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1364,7 +1364,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1683,49 +1683,49 @@
   <dimension ref="A1:AO189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="AL124" sqref="AL124"/>
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="80.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="62.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" customWidth="1"/>
+    <col min="3" max="3" width="25.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" customWidth="1"/>
+    <col min="5" max="5" width="25.265625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1328125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="80.59765625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="39.59765625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="62.265625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="48" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.59765625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="33" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="80.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="80.59765625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="45" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="80.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="80.59765625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="12" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="51.28515625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="60.42578125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.5703125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="47.85546875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="27.28515625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="40.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="52.28515625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="63.140625" hidden="1" customWidth="1"/>
-    <col min="25" max="26" width="80.5703125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="21.140625" hidden="1" customWidth="1"/>
-    <col min="28" max="29" width="80.5703125" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="50.140625" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="71.85546875" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="51.265625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="60.3984375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="43.59765625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="47.86328125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="27.265625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="40.73046875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="52.265625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="63.1328125" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="80.59765625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="21.1328125" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="80.59765625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="50.1328125" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="71.86328125" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="69.73046875" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="55" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="24.5703125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="29.7109375" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="18.85546875" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.59765625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="29.73046875" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="18.86328125" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>38</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>43</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>113</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>116</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>150</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>162</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>178</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>57</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>66</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>133</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>50</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>52</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>155</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>176</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>74</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>58</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>90</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>120</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>79</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>174</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>36</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>8</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>171</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>188</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>54</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>134</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>163</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>88</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>169</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>147</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>65</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>122</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>30</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>161</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>78</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>81</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>139</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>173</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>21</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>70</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>97</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>136</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>177</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>156</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>86</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>12</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>63</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>37</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>104</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>149</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>42</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>40</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>172</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>121</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>157</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>20</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>45</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>19</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>69</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>27</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>126</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>91</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>28</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>61</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>24</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>1</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>87</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>4</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>68</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>77</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>141</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>72</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>132</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>160</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>187</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>99</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>100</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>109</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>14</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>64</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>125</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>46</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>180</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>93</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>166</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>146</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>18</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>89</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>82</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>98</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>73</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>130</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>48</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>112</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>16</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>119</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>62</v>
       </c>
@@ -13192,7 +13192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>41</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>33</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>53</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>137</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>25</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>158</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>164</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>142</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>159</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>138</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>96</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>11</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>95</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>39</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>148</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>185</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>10</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>55</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>129</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>84</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>6</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>170</v>
       </c>
@@ -15741,7 +15741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>181</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>47</v>
       </c>
@@ -15973,7 +15973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>85</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>92</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>29</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>75</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>151</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>127</v>
       </c>
@@ -16669,7 +16669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>71</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>179</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>107</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>56</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>117</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>152</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>51</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>7</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>175</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>101</v>
       </c>
@@ -17829,7 +17829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>128</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>15</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>102</v>
       </c>
@@ -18177,7 +18177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>106</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>114</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>154</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>26</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>67</v>
       </c>
@@ -18757,7 +18757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>182</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>59</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>9</v>
       </c>
@@ -19072,7 +19072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>115</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>49</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>124</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>167</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>184</v>
       </c>
@@ -19649,7 +19649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>118</v>
       </c>
@@ -19765,7 +19765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>135</v>
       </c>
@@ -19881,7 +19881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>105</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>165</v>
       </c>
@@ -20110,7 +20110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>13</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>140</v>
       </c>
@@ -20336,7 +20336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>80</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>145</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>153</v>
       </c>
@@ -20684,7 +20684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>17</v>
       </c>
@@ -20800,7 +20800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>31</v>
       </c>
@@ -20913,7 +20913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>103</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>110</v>
       </c>
@@ -21145,7 +21145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>144</v>
       </c>
@@ -21261,7 +21261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>143</v>
       </c>
@@ -21377,7 +21377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>76</v>
       </c>
@@ -21493,7 +21493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>131</v>
       </c>
@@ -21609,7 +21609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>94</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>108</v>
       </c>
@@ -21835,7 +21835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>34</v>
       </c>
@@ -21951,7 +21951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>123</v>
       </c>
@@ -22067,7 +22067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>168</v>
       </c>
@@ -22183,7 +22183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>183</v>
       </c>
@@ -22299,7 +22299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>22</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>44</v>
       </c>
@@ -22528,7 +22528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>23</v>
       </c>
@@ -22644,7 +22644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>83</v>
       </c>
@@ -22760,7 +22760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>35</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>186</v>
       </c>
@@ -22992,7 +22992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>32</v>
       </c>
@@ -23108,7 +23108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>111</v>
       </c>
@@ -23238,7 +23238,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
